--- a/数据整理/stocks/A股/上证主板/603650-彤程新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603650-彤程新材.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006048</t>
+          <t>010153</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长城中证500指数增强A</t>
+          <t>中加中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.04</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007413</t>
+          <t>006048</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长城中证500指数增强C</t>
+          <t>长城中证500指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.04</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.88</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010153</t>
+          <t>010154</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中加中证500指数增强A</t>
+          <t>中加中证500指数增强C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.61</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.66</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010154</t>
+          <t>007413</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中加中证500指数增强C</t>
+          <t>长城中证500指数增强C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -660,15 +720,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>86.54</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.14</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010153</t>
+          <t>163110</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中加中证500指数增强A</t>
+          <t>申万菱信量化小盘股票(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -706,26 +786,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010154</t>
+          <t>005357</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中加中证500指数增强C</t>
+          <t>富国国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -734,26 +824,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>163110</t>
+          <t>010153</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>申万菱信量化小盘股票(LOF)</t>
+          <t>中加中证500指数增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.06</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -762,26 +862,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005357</t>
+          <t>010154</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国国企改革灵活配置混合</t>
+          <t>中加中证500指数增强C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>84.68</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603650-彤程新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603650-彤程新材.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3250</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2887</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>58.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603650-彤程新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603650-彤程新材.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1372,4 +1373,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6270</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3146</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008308</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏见龙精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603650-彤程新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603650-彤程新材.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1733,4 +1734,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603650-彤程新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603650-彤程新材.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1742,7 +1743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,17 +1754,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1773,14 +1794,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.46</v>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2274</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1789,14 +1832,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.17</v>
+          <t>008308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏见龙精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1805,14 +1870,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.22</v>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1821,13 +1908,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603650-彤程新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603650-彤程新材.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2027,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2038,17 +2039,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2058,14 +2079,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.41</v>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2699</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2074,14 +2117,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.46</v>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2090,14 +2155,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.17</v>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2106,14 +2193,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.22</v>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2122,13 +2231,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001723</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>55.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>65.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>65.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603650-彤程新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603650-彤程新材.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2464,7 +2465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2475,17 +2476,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2495,14 +2516,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001682</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新华鑫回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.45</v>
       </c>
     </row>
     <row r="3">
@@ -2511,14 +2554,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.41</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="4">
@@ -2527,14 +2660,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="5">
@@ -2543,14 +2676,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>1.17</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="6">
@@ -2559,14 +2692,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>0.22</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="7">
@@ -2575,13 +2708,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603650-彤程新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603650-彤程新材.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.45</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>1.41</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>1.17</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>0.22</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3463</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013389</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6572</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3411</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013390</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏成长先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2192</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -731,7 +956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1167,7 +1392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1451,7 +1676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1811,7 +2036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2285,7 +2510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2531,7 +2756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603650-彤程新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603650-彤程新材.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>2.56</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.45</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>1.41</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>1.17</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>0.22</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -616,7 +633,575 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3008</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013389</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6362</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3876</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013390</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏成长先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1964</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014410</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏时代领航两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014411</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏时代领航两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>016950</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -824,7 +1409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -956,7 +1541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1392,7 +1977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1676,7 +2261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2036,7 +2621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2510,7 +3095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2754,212 +3339,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010153</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中加中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0455</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006048</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长城中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0264</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010154</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中加中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007413</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长城中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>